--- a/input/ahp_template_技术风险C1.xlsx
+++ b/input/ahp_template_技术风险C1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="41">
   <si>
     <t>可靠性风险C1.1</t>
   </si>
@@ -64,28 +64,52 @@
     <t>4</t>
   </si>
   <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
+    <t>自动计算</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/9</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>自动计算</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>1/4</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>填写说明</t>
@@ -143,7 +167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +178,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -634,148 +651,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -784,10 +801,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1156,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1196,16 +1213,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1213,28 +1230,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1242,28 +1259,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1271,28 +1288,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1300,28 +1317,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1329,19 +1346,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1350,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1358,28 +1375,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1387,25 +1404,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1423,7 +1440,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1471,25 +1488,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1497,28 +1514,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1526,28 +1543,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1555,28 +1572,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1584,28 +1601,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1613,28 +1630,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1642,28 +1659,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1671,25 +1688,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1707,7 +1724,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1755,25 +1772,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1781,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1810,28 +1827,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1839,28 +1856,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1868,28 +1885,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1897,28 +1914,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1926,28 +1943,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1955,25 +1972,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1991,7 +2008,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2039,25 +2056,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2065,28 +2082,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2094,28 +2111,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2123,28 +2140,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2152,28 +2169,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2181,28 +2198,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2210,28 +2227,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2239,25 +2256,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2275,7 +2292,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2323,25 +2340,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2349,28 +2366,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2378,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2390,16 +2407,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2407,28 +2424,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2436,16 +2453,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2454,10 +2471,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2465,25 +2482,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -2494,28 +2511,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2523,25 +2540,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2566,77 +2583,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
